--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultrabook\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1A7A49-CB57-4AAF-9A95-280F959A8818}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D477-5303-48F6-92E4-991725230AE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6510" xr2:uid="{EAA1865E-E67D-471D-9FD6-4743E9C5D957}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>0.5 Test</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Multi-Thread</t>
+  </si>
+  <si>
+    <t>Coors</t>
   </si>
 </sst>
 </file>
@@ -89,17 +92,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,6 +124,4864 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Unmodified</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$2,Sheet1!$G$2,Sheet1!$K$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7037248909473401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.598412816878401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>556.34443641500502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2B50-4216-88C8-81B1AF8765BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$3,Sheet1!$G$3,Sheet1!$K$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7070354619063401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.307334549957801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>564.77399747096899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-2B50-4216-88C8-81B1AF8765BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$4,Sheet1!$G$4,Sheet1!$K$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.6523671490140202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.4493868798017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>544.05337149696402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-2B50-4216-88C8-81B1AF8765BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420103296"/>
+        <c:axId val="420100672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420103296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XYZ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420100672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420100672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420103296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Serial Optimized Code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$5,Sheet1!$G$5,Sheet1!$K$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1155753859784401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.935552436159899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384.59681832091798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1EB-4792-85BB-1FD135BA24E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$5,Sheet1!$G$5,Sheet1!$K$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1155753859784401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.935552436159899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384.59681832091798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1EB-4792-85BB-1FD135BA24E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$7,Sheet1!$G$7,Sheet1!$K$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1017308840528099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.6054689690936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388.20097002200703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D1EB-4792-85BB-1FD135BA24E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420103296"/>
+        <c:axId val="420100672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420103296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XYZ Size (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420100672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420100672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420103296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Multi-Process Code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$8,Sheet1!$G$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11.4941222951747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.041812632000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CABF-40DF-AA9F-5646349AC6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$9,Sheet1!$G$9,Sheet1!$K$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.709932772908299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.214603716973201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.573556423187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CABF-40DF-AA9F-5646349AC6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$10,Sheet1!$G$10,Sheet1!$K$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.568707478931101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.664784070104304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177.113266226137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CABF-40DF-AA9F-5646349AC6A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420103296"/>
+        <c:axId val="420100672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420103296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XYZ Size (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420100672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420100672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420103296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Multi-Thread Code</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Core</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$11,Sheet1!$G$11)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.2622683390509302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.402673671022001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0022-461C-A685-FA6140C896A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$12,Sheet1!$G$12,Sheet1!$K$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.1954364210832793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.086044183000901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.287875920999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0022-461C-A685-FA6140C896A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Cores</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$C$13,Sheet1!$G$13,Sheet1!$K$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.2269382020458508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.035290386993402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.75486418907499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0022-461C-A685-FA6140C896A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="420103296"/>
+        <c:axId val="420100672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="420103296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XYZ Size (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420100672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="420100672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420103296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3BA9EA-033D-40BE-A839-5A7E9A2390A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA55844-4D25-4D91-BB12-DFA62C23CB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB354A7-B173-48A5-85C4-6F4FE045FEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458DA192-F274-4A11-838E-A4C871E98A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,243 +5281,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E59CBA-619C-4C7D-98BA-AFCC3AC2B6D2}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3.7037248909473401</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>24.598412816878401</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <v>556.34443641500502</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>3.7070354619063401</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
         <v>24.307334549957801</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4">
+      <c r="I3" s="5"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
         <v>564.77399747096899</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>3.6523671490140202</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4">
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
         <v>24.4493868798017</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4">
+      <c r="I4" s="5"/>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
         <v>544.05337149696402</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3.1155753859784401</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>20.935552436159899</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
         <v>384.59681832091798</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>3.08684918703511</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <v>20.7089253638405</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4">
+      <c r="I6" s="5"/>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
         <v>388.19286719080901</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>3.1017308840528099</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4">
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
         <v>20.6054689690936</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4">
+      <c r="I7" s="5"/>
+      <c r="J7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2">
         <v>388.20097002200703</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>11.4941222951747</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>76.041812632000003</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
         <v>173.882790467934</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>11.709932772908299</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4">
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <v>76.214603716973201</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4">
+      <c r="I9" s="5"/>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
         <v>170.573556423187</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>11.568707478931101</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4">
+      <c r="E10" s="5"/>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
         <v>77.664784070104304</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4">
+      <c r="I10" s="5"/>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2">
         <v>177.113266226137</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>8.2622683390509302</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>53.402673671022001</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
         <v>144.76295739994299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>8.1954364210832793</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4">
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
         <v>53.086044183000901</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4">
+      <c r="I12" s="5"/>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
         <v>147.287875920999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>8.2269382020458508</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4">
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
         <v>54.035290386993402</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4">
+      <c r="I13" s="5"/>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2">
         <v>147.75486418907499</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultrabook\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultrabook\Documents\GitHub\HumanThermalModeling\HumanThermalModeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0479D477-5303-48F6-92E4-991725230AE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ADF6C91-3311-4EAD-B5F0-EB5D92447964}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6510" xr2:uid="{EAA1865E-E67D-471D-9FD6-4743E9C5D957}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -269,7 +269,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-2B50-4216-88C8-81B1AF8765BC}"/>
@@ -339,7 +339,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-2B50-4216-88C8-81B1AF8765BC}"/>
@@ -409,7 +409,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-2B50-4216-88C8-81B1AF8765BC}"/>
@@ -473,7 +473,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Size (mm)</a:t>
+                  <a:t> Size</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -553,6 +553,7 @@
         <c:axId val="420100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -595,7 +596,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Sec)</a:t>
+                  <a:t> (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -670,6 +671,7 @@
         <c:crossAx val="420103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -828,7 +830,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -893,7 +895,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1EB-4792-85BB-1FD135BA24E8}"/>
@@ -963,7 +965,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1EB-4792-85BB-1FD135BA24E8}"/>
@@ -1033,7 +1035,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D1EB-4792-85BB-1FD135BA24E8}"/>
@@ -1093,7 +1095,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>XYZ Size (mm)</a:t>
+                  <a:t>XYZ Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1172,6 +1174,7 @@
         <c:axId val="420100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1214,7 +1217,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Sec)</a:t>
+                  <a:t> (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1447,7 +1450,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1509,7 +1512,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CABF-40DF-AA9F-5646349AC6A8}"/>
@@ -1579,7 +1582,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CABF-40DF-AA9F-5646349AC6A8}"/>
@@ -1649,7 +1652,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CABF-40DF-AA9F-5646349AC6A8}"/>
@@ -1709,7 +1712,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>XYZ Size (mm)</a:t>
+                  <a:t>XYZ Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1830,7 +1833,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Sec)</a:t>
+                  <a:t> (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1905,6 +1908,7 @@
         <c:crossAx val="420103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2325,7 +2329,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>XYZ Size (mm)</a:t>
+                  <a:t>XYZ Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2404,6 +2408,7 @@
         <c:axId val="420100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2446,7 +2451,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Sec)</a:t>
+                  <a:t> (sec)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2521,6 +2526,7 @@
         <c:crossAx val="420103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4834,15 +4840,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4870,15 +4876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4908,15 +4914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4946,15 +4952,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5284,7 +5290,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
